--- a/english/vocabulary.xlsx
+++ b/english/vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tutorials\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE536B58-A423-4D4E-BD35-8EF2DAAAB613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01320930-C3C0-485F-9489-0E1841E295F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="222">
   <si>
     <t>biodiversity</t>
   </si>
@@ -388,6 +388,333 @@
   </si>
   <si>
     <t>يحافظ على</t>
+  </si>
+  <si>
+    <t>arise(from)-arose-arisen</t>
+  </si>
+  <si>
+    <t>ينتج عن-ينشا من</t>
+  </si>
+  <si>
+    <t>بالتالي-لذلك</t>
+  </si>
+  <si>
+    <t>consequently(conj) = so</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>ومع  ذلك-و برغم ذلك</t>
+  </si>
+  <si>
+    <t>لكي</t>
+  </si>
+  <si>
+    <t>in order to</t>
+  </si>
+  <si>
+    <t>يؤدي الى-ينتح عنه</t>
+  </si>
+  <si>
+    <t>lead to</t>
+  </si>
+  <si>
+    <t>not only…but also</t>
+  </si>
+  <si>
+    <t>ليس فقط...و لكن</t>
+  </si>
+  <si>
+    <t>come from (phr,v)</t>
+  </si>
+  <si>
+    <t>as a result</t>
+  </si>
+  <si>
+    <t>لكن</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>so that</t>
+  </si>
+  <si>
+    <t>يؤدي الى-ينتج عنه</t>
+  </si>
+  <si>
+    <t>result in (phr. V)</t>
+  </si>
+  <si>
+    <t>…as well as…</t>
+  </si>
+  <si>
+    <t>,,,,بالإضافة الى</t>
+  </si>
+  <si>
+    <t>فائدة-يستفيد</t>
+  </si>
+  <si>
+    <t>benefit(ed)(n-v)</t>
+  </si>
+  <si>
+    <t>career(n)</t>
+  </si>
+  <si>
+    <t>certain(adj)</t>
+  </si>
+  <si>
+    <t>charity(n)</t>
+  </si>
+  <si>
+    <t>community(n)</t>
+  </si>
+  <si>
+    <t>conclusion(n)</t>
+  </si>
+  <si>
+    <t>cons(n)</t>
+  </si>
+  <si>
+    <t>contacts(n)</t>
+  </si>
+  <si>
+    <t>contrast(n)</t>
+  </si>
+  <si>
+    <t>costs(n)</t>
+  </si>
+  <si>
+    <t>الحياة المهنية</t>
+  </si>
+  <si>
+    <t>محدد-معين</t>
+  </si>
+  <si>
+    <t>جمعية خيرية-عمل خيري</t>
+  </si>
+  <si>
+    <t>مجتمع-فئة/طائفة</t>
+  </si>
+  <si>
+    <t>خاتمة-خلاصة</t>
+  </si>
+  <si>
+    <t>عيوب-مساوئ</t>
+  </si>
+  <si>
+    <t>علاقات-اتصالات</t>
+  </si>
+  <si>
+    <t>تناقض</t>
+  </si>
+  <si>
+    <t>تكاليف</t>
+  </si>
+  <si>
+    <t>ممتع</t>
+  </si>
+  <si>
+    <t>في النهاية</t>
+  </si>
+  <si>
+    <t>يوجد</t>
+  </si>
+  <si>
+    <t>تعبير</t>
+  </si>
+  <si>
+    <t>enjoyable(adj)</t>
+  </si>
+  <si>
+    <t>eventually(adv)</t>
+  </si>
+  <si>
+    <t>exist(ed)(v)</t>
+  </si>
+  <si>
+    <t>expression(n)</t>
+  </si>
+  <si>
+    <t>formal(adj)</t>
+  </si>
+  <si>
+    <t>رسمي</t>
+  </si>
+  <si>
+    <t>يكتسب-يزداد</t>
+  </si>
+  <si>
+    <t>gain(ed)(v)</t>
+  </si>
+  <si>
+    <t>inspire(d)(v)</t>
+  </si>
+  <si>
+    <t>يلهم</t>
+  </si>
+  <si>
+    <t>قائد</t>
+  </si>
+  <si>
+    <t>leader(n)</t>
+  </si>
+  <si>
+    <t>majority(n)</t>
+  </si>
+  <si>
+    <t>mental health(n)</t>
+  </si>
+  <si>
+    <t>الأغلبية</t>
+  </si>
+  <si>
+    <t>الصحة النفسية</t>
+  </si>
+  <si>
+    <t>ضروري</t>
+  </si>
+  <si>
+    <t>necessary(adj)</t>
+  </si>
+  <si>
+    <t>opportunity(n)</t>
+  </si>
+  <si>
+    <t>فرصة</t>
+  </si>
+  <si>
+    <t>مدفوع الاجر</t>
+  </si>
+  <si>
+    <t>مميزات-مزايا</t>
+  </si>
+  <si>
+    <t>نفسي</t>
+  </si>
+  <si>
+    <t>غرض</t>
+  </si>
+  <si>
+    <t>paid(adj)</t>
+  </si>
+  <si>
+    <t>pros(n)</t>
+  </si>
+  <si>
+    <t>psychological(adj)</t>
+  </si>
+  <si>
+    <t>purpose(n)</t>
+  </si>
+  <si>
+    <t>related(adj)</t>
+  </si>
+  <si>
+    <t>repair(ed)(v)</t>
+  </si>
+  <si>
+    <t>reward(ed)(v-n)</t>
+  </si>
+  <si>
+    <t>rise-rose-risen(v)</t>
+  </si>
+  <si>
+    <t>run-ran-run(v)</t>
+  </si>
+  <si>
+    <t>مرتبط/متعلق</t>
+  </si>
+  <si>
+    <t>يصلح</t>
+  </si>
+  <si>
+    <t>يكافئ-مكافاة</t>
+  </si>
+  <si>
+    <t>يرتفع/يزداد/تشرق</t>
+  </si>
+  <si>
+    <t>يدير</t>
+  </si>
+  <si>
+    <t>sign(ed)(n-v)</t>
+  </si>
+  <si>
+    <t>skateboard(n)</t>
+  </si>
+  <si>
+    <t>specific(adj)</t>
+  </si>
+  <si>
+    <t>suitable(adj)</t>
+  </si>
+  <si>
+    <t>sunshade(n)</t>
+  </si>
+  <si>
+    <t>valuable(adj)</t>
+  </si>
+  <si>
+    <t>visible(adj)</t>
+  </si>
+  <si>
+    <t>voluntary(adj)</t>
+  </si>
+  <si>
+    <t>volunteer(n)</t>
+  </si>
+  <si>
+    <t>volunteer(ed)(v)</t>
+  </si>
+  <si>
+    <t>volunteering(n)</t>
+  </si>
+  <si>
+    <t>العمل التطوعي-التطوع</t>
+  </si>
+  <si>
+    <t>يتطوع</t>
+  </si>
+  <si>
+    <t>متطوع</t>
+  </si>
+  <si>
+    <t>تطوعي</t>
+  </si>
+  <si>
+    <t>مرئي</t>
+  </si>
+  <si>
+    <t>قيم</t>
+  </si>
+  <si>
+    <t>شمسية-مظلة</t>
+  </si>
+  <si>
+    <t>مناسب</t>
+  </si>
+  <si>
+    <t>محدد</t>
+  </si>
+  <si>
+    <t>لوح التزلج</t>
+  </si>
+  <si>
+    <t>لافتة-يوقع/يمضي</t>
+  </si>
+  <si>
+    <t>الشباب</t>
+  </si>
+  <si>
+    <t>youth(n)</t>
+  </si>
+  <si>
+    <t>mend(v)</t>
+  </si>
+  <si>
+    <t>صلح</t>
   </si>
 </sst>
 </file>
@@ -705,11 +1032,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -719,6 +1052,30 @@
         <v>30</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -740,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8EEB1C-6FC7-4DB8-94CA-56C3B472E4D2}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -761,13 +1118,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C64A641-AC8B-4AFA-8104-78401A45A1B1}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -777,6 +1138,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -784,15 +1161,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A983432-2FF7-4A13-B0F5-AEFAA84DF6B8}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,6 +1181,30 @@
         <v>39</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -810,16 +1212,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F08BFE-05BD-47B5-A41F-6F1111A46D6D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,6 +1240,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -845,13 +1263,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E3A67B-7CFA-4F0E-990D-B4B94079FEA5}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -861,6 +1282,14 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -868,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14B01B8-4679-4A9B-9ECD-8170F9F10182}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,6 +1332,38 @@
         <v>44</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -922,15 +1383,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9003ABFA-561F-487C-8287-B7F1EEA23BAD}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -990,6 +1451,54 @@
         <v>58</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -997,16 +1506,16 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F01A1E-17D9-443A-8EF7-33689365B633}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A15" sqref="A15:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1073,6 +1582,54 @@
         <v>62</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1080,13 +1637,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1893E3-BF7F-42A8-BF7D-B9583170097D}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1094,6 +1654,22 @@
       </c>
       <c r="B1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1153,12 +1729,67 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958DBC8C-110F-4D40-9452-A2717214BF13}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1189,12 +1820,23 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA7CA36-8E21-43DC-ACB9-9A7CC3F39943}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1235,16 +1877,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BE9C37-1930-4B70-A544-7ECADF1FE946}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,6 +1969,94 @@
         <v>85</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1365,10 +2095,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2279B6D4-3DBB-47E5-96CA-248FA64B0435}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,6 +2155,38 @@
         <v>98</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1432,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C40CB27-B02A-4225-B31F-AB0A37650767}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,6 +2229,14 @@
         <v>101</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1474,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0559A08-5D03-4A03-A64E-E2DEEEFAF977}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,6 +2263,14 @@
         <v>106</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1500,22 +2278,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A87D5F9-C871-4DCE-B81F-597A4E556A00}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F578F33-CA5A-4135-A3D2-0FEE878B040B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,6 +2339,22 @@
         <v>108</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
